--- a/Moribondo/Moribondo_TL.xlsx
+++ b/Moribondo/Moribondo_TL.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="18192" windowHeight="11316" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="24220" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Punteggi" sheetId="1" r:id="rId1"/>
     <sheet name="TL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Prova</t>
   </si>
@@ -500,26 +505,43 @@
       </rPr>
       <t xml:space="preserve">                           27/05/2016</t>
     </r>
+  </si>
+  <si>
+    <t>Argiolas</t>
+  </si>
+  <si>
+    <t>Alessandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carta </t>
+  </si>
+  <si>
+    <t>Stefano</t>
+  </si>
+  <si>
+    <t>T.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertulu </t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>Non presente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -622,29 +644,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,33 +674,33 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -687,19 +709,19 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,7 +730,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,111 +738,114 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1111,20 +1136,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="40.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1141,7 +1166,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1253,7 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:8" ht="28.8">
+    <row r="8" spans="1:8" ht="28">
       <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1361,7 @@
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:8" ht="28.8">
+    <row r="15" spans="1:8" ht="28">
       <c r="A15" s="26" t="s">
         <v>0</v>
       </c>
@@ -1386,29 +1411,33 @@
     <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>20</v>
       </c>
@@ -1418,38 +1447,38 @@
       <c r="E1" s="35"/>
       <c r="F1" s="36"/>
     </row>
-    <row r="2" spans="1:6" ht="43.2">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2">
         <f>SUM(F9:F16)/B2</f>
-        <v>2.0149999999999997</v>
+        <v>1.1514285714285712</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="31" t="s">
         <v>51</v>
       </c>
@@ -1459,7 +1488,7 @@
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1479,7 +1508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1497,7 +1526,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -1515,7 +1544,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -1533,7 +1562,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -1551,37 +1580,75 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2">
+        <v>49062</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="B14" s="2">
+        <v>48554</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2">
+        <v>49044</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -1592,11 +1659,18 @@
       <c r="F16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>